--- a/medicine/Psychotrope/Blanche_de_Namur_(bière)/Blanche_de_Namur_(bière).xlsx
+++ b/medicine/Psychotrope/Blanche_de_Namur_(bière)/Blanche_de_Namur_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blanche_de_Namur_(bi%C3%A8re)</t>
+          <t>Blanche_de_Namur_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Blanche de Namur est une bière blanche belge produite aujourd'hui par la Brasserie du Bocq[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Blanche de Namur est une bière blanche belge produite aujourd'hui par la Brasserie du Bocq.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blanche_de_Namur_(bi%C3%A8re)</t>
+          <t>Blanche_de_Namur_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blanche de Namur a vécu au XIVe siècle et était la fille de Jean Ier de Namur et de Marie d'Artois. Elle a épousé Magnus IV Eriksson, roi de Suède et de Norvège. En 1335, elle s'installa en Scandinavie et ne revint jamais. Cette bière lui est dédiée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blanche de Namur a vécu au XIVe siècle et était la fille de Jean Ier de Namur et de Marie d'Artois. Elle a épousé Magnus IV Eriksson, roi de Suède et de Norvège. En 1335, elle s'installa en Scandinavie et ne revint jamais. Cette bière lui est dédiée.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blanche_de_Namur_(bi%C3%A8re)</t>
+          <t>Blanche_de_Namur_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>La bière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Blanche de Namur est une bière blanche avec une teneur en alcool de 4,5 %.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Blanche_de_Namur_(bi%C3%A8re)</t>
+          <t>Blanche_de_Namur_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2008, 2009 en 2010 : Australian International Beer Awards - médaille d'argent dans la catégorie Best Belgian Style Witbier
 2009 :  World Beer Awards - meilleure bière blanche du monde
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Blanche_de_Namur_(bi%C3%A8re)</t>
+          <t>Blanche_de_Namur_(bière)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Variété</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe aussi une Blanche de Namur Rosée qui est une Blanche de Namur a laquelle a été ajouté du jus de framboise. Elle titre 3,4 % en volume d'alcool.
 </t>
